--- a/biology/Zoologie/Boykin_Spaniel/Boykin_Spaniel.xlsx
+++ b/biology/Zoologie/Boykin_Spaniel/Boykin_Spaniel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Boykin Spaniel est une race de chien originaire du sud des États-Unis.
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La version du club de la race dit qu'un M. Alexander L. White a trouvé un petit chien lorsqu'il sortait d'une église Méthodiste à Spartanburg, Caroline du Sud, vers 1900. White en a fait son chien de famille. Trouvant qu'il était bon chasseur, White a engagé un dresseur qui s'appelait Lemuel Whitaker "Whit" Boykin. Désormais, la race prendra son nom.
 Le Boykin serait le produit de croisements de plusieurs races: le Chesapeake Bay Retriever, l'English Springer Spaniel, le Cocker américain, et le chien d'eau américain. Il est probable que le chien que White a trouvé était un chien d'eau américain; il est certain que les croisements avec cette race continuent jusqu'aux années 1970. Le registre officiel de la race n'est établi qu'en 1979.
